--- a/dataset/excel data/124-616.xlsx
+++ b/dataset/excel data/124-616.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\실험데이터\★★버블맵프로그램및도면이미지\도면이미지\★논문유형 10\18-279-1\1. orignal image\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\버블맵프로그램및도면이미지\도면이미지\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB19FA1-C4A8-4428-B209-46F558569220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5753E7F-2F19-49CF-BF67-33B9BDD35BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="375" windowWidth="26340" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="124-616" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="105">
   <si>
     <t>인접공간ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,7 +271,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.0677</t>
+    <t>0.0676</t>
   </si>
   <si>
     <t>1738</t>
@@ -286,82 +286,133 @@
     <t>KIT</t>
   </si>
   <si>
-    <t>0.0434</t>
-  </si>
-  <si>
-    <t>0.5652</t>
-  </si>
-  <si>
-    <t>0.0137</t>
+    <t>0.0419</t>
+  </si>
+  <si>
+    <t>0.5859</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>GAR</t>
+  </si>
+  <si>
+    <t>0.1868</t>
+  </si>
+  <si>
+    <t>UTI</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>0.0128</t>
+  </si>
+  <si>
+    <t>0.7209</t>
+  </si>
+  <si>
+    <t>0.3648</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>0.0291</t>
   </si>
   <si>
     <t>CLO</t>
   </si>
   <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>0.5638</t>
-  </si>
-  <si>
-    <t>0.0142</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>0.0117</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
-    <t>0.1905</t>
-  </si>
-  <si>
-    <t>0.1059</t>
-  </si>
-  <si>
-    <t>GAR</t>
-  </si>
-  <si>
-    <t>0.1958</t>
-  </si>
-  <si>
-    <t>UTI</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.3708</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>0.4706</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>0.7917</t>
-  </si>
-  <si>
-    <t>0.0052</t>
-  </si>
-  <si>
-    <t>0.0106</t>
-  </si>
-  <si>
-    <t>0.4783</t>
-  </si>
-  <si>
-    <t>0.0116</t>
+    <t>0.5025</t>
+  </si>
+  <si>
+    <t>0.0459</t>
+  </si>
+  <si>
+    <t>0.2321</t>
+  </si>
+  <si>
+    <t>0.1116</t>
+  </si>
+  <si>
+    <t>0.0112</t>
+  </si>
+  <si>
+    <t>0.8491</t>
+  </si>
+  <si>
+    <t>0.0054</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.0136</t>
+  </si>
+  <si>
+    <t>124-616-2</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>0.2302</t>
+  </si>
+  <si>
+    <t>DRE</t>
+  </si>
+  <si>
+    <t>0.1863</t>
+  </si>
+  <si>
+    <t>0.1453</t>
+  </si>
+  <si>
+    <t>0.0646</t>
+  </si>
+  <si>
+    <t>0.6412</t>
+  </si>
+  <si>
+    <t>0.0365</t>
+  </si>
+  <si>
+    <t>0.6688</t>
+  </si>
+  <si>
+    <t>0.0568</t>
+  </si>
+  <si>
+    <t>0.1362</t>
+  </si>
+  <si>
+    <t>0.9006</t>
+  </si>
+  <si>
+    <t>0.0874</t>
+  </si>
+  <si>
+    <t>0.0073</t>
+  </si>
+  <si>
+    <t>0.4016</t>
+  </si>
+  <si>
+    <t>0.0198</t>
+  </si>
+  <si>
+    <t>0.4898</t>
+  </si>
+  <si>
+    <t>0.0156</t>
   </si>
 </sst>
 </file>
@@ -510,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,13 +571,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -541,13 +592,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -556,37 +607,40 @@
     <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,7 +928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
@@ -916,30 +970,30 @@
       <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="15" t="s">
         <v>44</v>
       </c>
@@ -968,14 +1022,14 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1046,10 +1100,10 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1228,13 +1282,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.28439999999999999</v>
+        <v>0.28070000000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>0.2382</v>
+        <v>0.2409</v>
       </c>
       <c r="J5" s="1">
-        <v>0.96179999999999999</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>54</v>
@@ -1320,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.28439999999999999</v>
+        <v>0.28070000000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>0.2382</v>
+        <v>0.2409</v>
       </c>
       <c r="J6" s="1">
-        <v>0.96179999999999999</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>54</v>
@@ -1412,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.2072</v>
+        <v>0.1983</v>
       </c>
       <c r="I7" s="1">
-        <v>0.2094</v>
+        <v>0.21129999999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.79710000000000003</v>
+        <v>0.75160000000000005</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>54</v>
@@ -1504,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.17330000000000001</v>
+        <v>0.16639999999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>7.8899999999999998E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1549,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1596,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.17330000000000001</v>
+        <v>0.16639999999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>7.8899999999999998E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1641,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
@@ -1653,10 +1707,10 @@
         <v>65</v>
       </c>
       <c r="AB9" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AC9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="1">
         <v>1</v>
@@ -1688,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.17330000000000001</v>
+        <v>0.16639999999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>7.8899999999999998E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1733,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -1742,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AB10" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AC10" s="1">
         <v>1</v>
@@ -1757,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -1771,25 +1825,25 @@
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.17330000000000001</v>
+        <v>0.4672</v>
       </c>
       <c r="I11" s="1">
-        <v>7.8899999999999998E-2</v>
+        <v>0.3997</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>55</v>
@@ -1801,7 +1855,7 @@
         <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>58</v>
@@ -1810,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1822,22 +1876,22 @@
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AB11" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AC11" s="1">
         <v>1</v>
@@ -1849,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1863,25 +1917,25 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.17699999999999999</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="I12" s="1">
-        <v>8.0399999999999999E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0.49530000000000002</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>55</v>
@@ -1893,7 +1947,7 @@
         <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>58</v>
@@ -1914,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
@@ -1932,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="AC12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD12" s="1">
         <v>1</v>
@@ -1955,25 +2009,25 @@
         <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>8.2900000000000001E-2</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>0.1411</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.47310000000000002</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>55</v>
@@ -1985,7 +2039,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>58</v>
@@ -1994,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2012,28 +2066,28 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AB13" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
@@ -2047,25 +2101,25 @@
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="1">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.83050000000000002</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.1275</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>55</v>
@@ -2077,7 +2131,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>58</v>
@@ -2089,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2104,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>59</v>
@@ -2116,16 +2170,16 @@
         <v>8</v>
       </c>
       <c r="AC14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -2139,25 +2193,25 @@
         <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.4708</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>0.4158</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.91239999999999999</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>55</v>
@@ -2169,7 +2223,7 @@
         <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>58</v>
@@ -2181,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2199,25 +2253,25 @@
         <v>1</v>
       </c>
       <c r="Y15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AB15" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
@@ -2240,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.75890000000000002</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>0.48859999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>55</v>
@@ -2261,7 +2315,7 @@
         <v>56</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>58</v>
@@ -2294,22 +2348,22 @@
         <v>5</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AB16" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
@@ -2332,16 +2386,16 @@
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0.75890000000000002</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>0.48859999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>55</v>
@@ -2353,7 +2407,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>58</v>
@@ -2386,22 +2440,22 @@
         <v>5</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB17" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AC17" s="1">
         <v>1</v>
       </c>
       <c r="AD17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
@@ -2424,16 +2478,16 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0.75890000000000002</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>0.48859999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>55</v>
@@ -2445,7 +2499,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>58</v>
@@ -2478,22 +2532,22 @@
         <v>5</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AB18" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
@@ -2507,25 +2561,25 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>0.75890000000000002</v>
+        <v>0.1731</v>
       </c>
       <c r="I19" s="1">
-        <v>0.48859999999999998</v>
+        <v>0.16819999999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>55</v>
@@ -2537,7 +2591,7 @@
         <v>56</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>58</v>
@@ -2564,28 +2618,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AB19" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="1">
         <v>1</v>
       </c>
       <c r="AD19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
@@ -2599,25 +2653,25 @@
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>0.75890000000000002</v>
+        <v>0.1731</v>
       </c>
       <c r="I20" s="1">
-        <v>0.48859999999999998</v>
+        <v>0.16819999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>55</v>
@@ -2629,7 +2683,7 @@
         <v>56</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>58</v>
@@ -2656,16 +2710,16 @@
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="AB20" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AC20" s="1">
         <v>1</v>
@@ -2677,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
@@ -2691,25 +2745,25 @@
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>0.75890000000000002</v>
+        <v>0.1731</v>
       </c>
       <c r="I21" s="1">
-        <v>0.48859999999999998</v>
+        <v>0.16819999999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>55</v>
@@ -2721,7 +2775,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>58</v>
@@ -2748,16 +2802,16 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AB21" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC21" s="1">
         <v>1</v>
@@ -2792,13 +2846,13 @@
         <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>0.17510000000000001</v>
+        <v>0.1731</v>
       </c>
       <c r="I22" s="1">
-        <v>0.16539999999999999</v>
+        <v>0.16819999999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.85319999999999996</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>54</v>
@@ -2813,7 +2867,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>58</v>
@@ -2846,22 +2900,22 @@
         <v>0</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AB22" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AC22" s="1">
         <v>1</v>
       </c>
       <c r="AD22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
@@ -2875,25 +2929,25 @@
         <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.17510000000000001</v>
+        <v>0.33779999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>0.16539999999999999</v>
+        <v>0.13589999999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.85319999999999996</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>55</v>
@@ -2905,7 +2959,7 @@
         <v>56</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>58</v>
@@ -2932,16 +2986,16 @@
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB23" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AC23" s="1">
         <v>1</v>
@@ -2967,25 +3021,25 @@
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.17510000000000001</v>
+        <v>0.33779999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>0.16539999999999999</v>
+        <v>0.13589999999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.85319999999999996</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>55</v>
@@ -2997,7 +3051,7 @@
         <v>56</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>58</v>
@@ -3024,16 +3078,16 @@
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AB24" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="1">
         <v>1</v>
@@ -3059,25 +3113,25 @@
         <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0.17510000000000001</v>
+        <v>0.77480000000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>0.16539999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.85319999999999996</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>55</v>
@@ -3101,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -3122,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AB25" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AC25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD25" s="1">
         <v>1</v>
@@ -3151,25 +3205,25 @@
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.35220000000000001</v>
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>0.13350000000000001</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>55</v>
@@ -3181,7 +3235,7 @@
         <v>56</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>58</v>
@@ -3193,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -3208,16 +3262,16 @@
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="AB26" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="1">
         <v>1</v>
@@ -3243,25 +3297,25 @@
         <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.35220000000000001</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>0.13350000000000001</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>55</v>
@@ -3273,7 +3327,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>58</v>
@@ -3285,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" s="1">
         <v>0</v>
@@ -3300,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB27" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD27" s="1">
         <v>1</v>
@@ -3338,22 +3392,22 @@
         <v>65</v>
       </c>
       <c r="F28" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>9.0399999999999994E-2</v>
+        <v>0.1681</v>
       </c>
       <c r="I28" s="1">
-        <v>5.7700000000000001E-2</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>55</v>
@@ -3365,7 +3419,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>58</v>
@@ -3374,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -3386,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
@@ -3404,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="AC28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="1">
         <v>1</v>
@@ -3421,28 +3475,28 @@
         <v>51</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>9.0399999999999994E-2</v>
+        <v>0.44479999999999997</v>
       </c>
       <c r="I29" s="1">
-        <v>0.1168</v>
+        <v>0.51739999999999997</v>
       </c>
       <c r="J29" s="1">
-        <v>0.62339999999999995</v>
+        <v>0.87229999999999996</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>54</v>
@@ -3457,7 +3511,7 @@
         <v>56</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>58</v>
@@ -3469,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -3484,16 +3538,16 @@
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="AB29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC29" s="1">
         <v>1</v>
@@ -3513,31 +3567,31 @@
         <v>51</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F30" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0.17330000000000001</v>
+        <v>0.44479999999999997</v>
       </c>
       <c r="I30" s="1">
-        <v>6.6799999999999998E-2</v>
+        <v>0.51739999999999997</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0.87229999999999996</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>55</v>
@@ -3549,7 +3603,7 @@
         <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>58</v>
@@ -3558,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T30" s="1">
         <v>0</v>
@@ -3570,33 +3624,1689 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.44479999999999997</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.51739999999999997</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1">
+        <v>3</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AB31" s="1">
         <v>8</v>
       </c>
-      <c r="AC30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="1">
+      <c r="AC31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.36170000000000002</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.36170000000000002</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.2369</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.2893</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.1963</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>5</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>5</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>5</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>5</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>5</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>5</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="1">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1">
+        <v>1</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="1">
+        <v>11</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="1">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.1772</v>
+      </c>
+      <c r="I48" s="1">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="1">
         <v>0.25</v>
       </c>
     </row>
